--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2667.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2667.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159735724727518</v>
+        <v>1.39907431602478</v>
       </c>
       <c r="B1">
-        <v>2.42212609616228</v>
+        <v>1.430711030960083</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.537987589836121</v>
       </c>
       <c r="D1">
-        <v>2.327036036279528</v>
+        <v>2.202733278274536</v>
       </c>
       <c r="E1">
-        <v>1.210252379654784</v>
+        <v>4.348400592803955</v>
       </c>
     </row>
   </sheetData>
